--- a/databases/API.xlsx
+++ b/databases/API.xlsx
@@ -69,7 +69,7 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
-    <t xml:space="preserve">picture</t>
+    <t xml:space="preserve">Image</t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
@@ -419,7 +419,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -541,15 +541,15 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="67.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="67.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="16.38"/>

--- a/databases/API.xlsx
+++ b/databases/API.xlsx
@@ -99,13 +99,13 @@
     <t xml:space="preserve">SolverPlant</t>
   </si>
   <si>
-    <t xml:space="preserve">Thymian_Eucalyptus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymian_Primel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymian_Efeu</t>
+    <t xml:space="preserve">Thymian Eucalyptus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thymian Primel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thymian Efeu</t>
   </si>
   <si>
     <t xml:space="preserve">Efeu</t>
@@ -419,7 +419,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -541,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -816,7 +816,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>

--- a/databases/API.xlsx
+++ b/databases/API.xlsx
@@ -19,41 +19,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Tamim:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Bei Bewertung unterscheiden zwischen Löser und Stiller (pauschal nur am Abend) -</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
@@ -284,7 +249,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -328,15 +293,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,12 +305,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3652A0"/>
         <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -419,11 +371,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,20 +392,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -541,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -581,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -591,13 +535,13 @@
       <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="0" t="n">
@@ -607,20 +551,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -630,20 +574,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="0" t="n">
@@ -653,20 +597,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -676,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -686,23 +630,23 @@
       <c r="C6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="218.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -712,13 +656,13 @@
       <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -728,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -738,13 +682,13 @@
       <c r="C8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="0" t="n">
@@ -754,23 +698,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -780,20 +724,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="0"/>
       <c r="G10" s="0" t="n">
         <v>4</v>
       </c>
@@ -801,50 +745,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="0"/>
       <c r="G13" s="0" t="n">
         <v>5</v>
       </c>
@@ -852,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -862,10 +806,10 @@
       <c r="C14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="0"/>
       <c r="G14" s="0" t="n">
         <v>4</v>
       </c>
@@ -873,7 +817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -883,13 +827,13 @@
       <c r="C15" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="0" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -899,7 +843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -909,13 +853,13 @@
       <c r="C16" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -925,7 +869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -935,13 +879,13 @@
       <c r="C17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="0" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G17" s="0" t="n">
@@ -951,23 +895,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="0" t="n">
@@ -977,59 +921,59 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="0" t="s">
         <v>60</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="174.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="0" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -1039,23 +983,23 @@
       <c r="C21" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="0" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="0" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
@@ -1065,11 +1009,11 @@
       <c r="C22" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="0"/>
+      <c r="G22" s="0" t="s">
         <v>66</v>
       </c>
       <c r="H22" s="0" t="s">
@@ -1080,42 +1024,10 @@
       <c r="C27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="8"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.baumschule-horstmann.de/bilder/popup/echter-thymian-quendel-m007044_h_0.jpg "/>
-    <hyperlink ref="F2" r:id="rId3" display="https://www.test.de/medikamente/wirkstoff/pflanzliche-mittel-efeu-oder-primel-thymian-und-myrtol-kombination-w1352/ "/>
-    <hyperlink ref="E3" r:id="rId4" display="https://www.baumschule-horstmann.de/bilder/popup/echter-thymian-quendel-m007044_h_0.jpg "/>
-    <hyperlink ref="F3" r:id="rId5" display="https://www.test.de/medikamente/wirkstoff/pflanzliche-mittel-efeu-oder-primel-thymian-und-myrtol-kombination-w1352/ "/>
-    <hyperlink ref="E4" r:id="rId6" display="https://www.baumschule-horstmann.de/bilder/popup/echter-thymian-quendel-m007044_h_0.jpg "/>
-    <hyperlink ref="F4" r:id="rId7" display="https://www.test.de/medikamente/wirkstoff/pflanzliche-mittel-efeu-oder-primel-thymian-und-myrtol-kombination-w1352/ "/>
-    <hyperlink ref="E5" r:id="rId8" display="https://www.baumschule-horstmann.de/bilder/popup/echter-thymian-quendel-m007044_h_0.jpg "/>
-    <hyperlink ref="F5" r:id="rId9" display="https://www.test.de/medikamente/wirkstoff/pflanzliche-mittel-efeu-oder-primel-thymian-und-myrtol-kombination-w1352/ "/>
-    <hyperlink ref="E6" r:id="rId10" display="https://cdn.pflanzmich.de/produkt/44319/01-hedera-helix-baltica-91151-cm-04_origin_img.jpg "/>
-    <hyperlink ref="F6" r:id="rId11" display="https://www.test.de/medikamente/wirkstoff/pflanzliches-hustenmittel-efeu-w1470/ "/>
-    <hyperlink ref="E7" r:id="rId12" display="https://www.smgrowers.com/imagedb/Pelargoniumsidioides.jpg "/>
-    <hyperlink ref="F7" r:id="rId13" display="https://www.test.de/medikamente/wirkstoff/pflanzliches-mittel-pelargonium-w1350/"/>
-    <hyperlink ref="E8" r:id="rId14" display="https://media.sciencephoto.com/image/b6400303/400wm "/>
-    <hyperlink ref="F8" r:id="rId15" display="https://www.test.de/medikamente/wirkstoff/pflanzliche-mittel-efeu-oder-primel-thymian-und-myrtol-kombination-w1352/ "/>
-    <hyperlink ref="E9" r:id="rId16" display="https://upload.wikimedia.org/wikipedia/commons/thumb/3/3d/Echter_Lorbeer_-_Bl%C3%A4tter%2C_Bl%C3%BCtenknospen_und_reife_Fr%C3%BCchte.jpg/500px-Echter_Lorbeer_-_Bl%C3%A4tter%2C_Bl%C3%BCtenknospen_und_reife_Fr%C3%BCchte.jpg"/>
-    <hyperlink ref="F9" r:id="rId17" display="https://www.test.de/medikamente/wirkstoff/pflanzliches-hustenmittel-cineol-w1358/ "/>
-    <hyperlink ref="E15" r:id="rId18" display="https://upload.wikimedia.org/wikipedia/commons/c/c9/Ambroxol_structural_formulae.png"/>
-    <hyperlink ref="F15" r:id="rId19" display="https://www.test.de/medikamente/wirkstoff/sekretloesendes-mittel-ambroxol-w1345/ "/>
-    <hyperlink ref="E16" r:id="rId20" display="https://upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Bromhexine_Structural_Formulae_V.1.svg/1200px-Bromhexine_Structural_Formulae_V.1.svg.png "/>
-    <hyperlink ref="F16" r:id="rId21" display="https://www.test.de/medikamente/wirkstoff/sekretloesendes-mittel-bromhexin-w1468/ "/>
-    <hyperlink ref="E17" r:id="rId22" display="https://upload.wikimedia.org/wikipedia/commons/3/3a/%28R%29-N-Acetylcysteine_Structural_Formulae.png "/>
-    <hyperlink ref="F17" r:id="rId23" display="https://www.test.de/medikamente/wirkstoff/sekretloesendes-mittel-acetylcystein-w1456/?focus=indi_k287 "/>
-    <hyperlink ref="E18" r:id="rId24" display="https://www.chemsrc.com/caspic/086/93-14-1.png "/>
-    <hyperlink ref="F18" r:id="rId25" display="https://www.test.de/medikamente/wirkstoff/sekretloesendes-mittel-guaifenesin-w1465/ "/>
-    <hyperlink ref="E19" r:id="rId26" display="https://upload.wikimedia.org/wikipedia/commons/thumb/e/e5/Dextromethorphan_skeletal.png/1200px-Dextromethorphan_skeletal.png "/>
-    <hyperlink ref="F19" r:id="rId27" display="https://www.test.de/medikamente/wirkstoff/hustenstiller-dextromethorphan-w1371/ "/>
-    <hyperlink ref="E20" r:id="rId28" display="https://upload.wikimedia.org/wikipedia/commons/thumb/e/e7/2-%282-%28diethylamino%29ethoxy%29ethyl_1-phenylcyclopentanecarboxylate_200.svg/1200px-2-%282-%28diethylamino%29ethoxy%29ethyl_1-phenylcyclopentanecarboxylate_200.svg.png "/>
-    <hyperlink ref="F20" r:id="rId29" display="https://www.test.de/medikamente/wirkstoff/hustenstiller-pentoxyverin-w1480/ "/>
-    <hyperlink ref="E21" r:id="rId30" display="https://deacademic.com/pictures/dewiki/68/Dropropizine.png"/>
-    <hyperlink ref="F21" r:id="rId31" display="https://www.test.de/medikamente/wirkstoff/hustenstiller-dropropizin-levodropropizin-w1482/ "/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1123,6 +1035,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId32"/>
 </worksheet>
 </file>
--- a/databases/API.xlsx
+++ b/databases/API.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D9562-0B4B-451A-BACE-3A534C40422B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="D_API" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="D_API" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,39 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CategoryPrevMed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CategoryChoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es gibt zwar Studien, die für diese Pflanzenkombinationen im Vergleich zu einer Scheinbehandlung eine Besserung der Beschwerden bei Husten zeigen. Dass die Kombination mehrerer pflanzlicher Inhaltsstoffe besser wirkt als ein Mittel mit beispielsweise Efeu- oder Thymianextrakt allein, ist jedoch nicht untersucht. Insgesamt reicht die Studienlage derzeit noch nicht aus, um den therapeutischen Stellenwert abschließend zu bestimmen. Sie sind deshalb mit Einschränkung geeignet.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CategoryPrevMed</t>
+  </si>
+  <si>
+    <t>CategoryChoice</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Thymian</t>
+  </si>
+  <si>
+    <t>Es gibt zwar Studien, die für diese Pflanzenkombinationen im Vergleich zu einer Scheinbehandlung eine Besserung der Beschwerden bei Husten zeigen. Dass die Kombination mehrerer pflanzlicher Inhaltsstoffe besser wirkt als ein Mittel mit beispielsweise Efeu- oder Thymianextrakt allein, ist jedoch nicht untersucht. Insgesamt reicht die Studienlage derzeit noch nicht aus, um den therapeutischen Stellenwert abschließend zu bestimmen. Sie sind deshalb mit Einschränkung geeignet.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.baumschule-horstmann.de/bilder/popup/echter-thymian-quendel-m007044_h_0.jpg </t>
@@ -61,22 +66,22 @@
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/pflanzliche-mittel-efeu-oder-primel-thymian-und-myrtol-kombination-w1352/ </t>
   </si>
   <si>
-    <t xml:space="preserve">SolverPlant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymian Eucalyptus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymian Primel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymian Efeu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efeu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In wenigen Studien konnte gezeigt werden, dass efeuhaltige Präparate die Beschwerden bei Husten lindern können. Allerdings sind die Studien wisssenschaftlich nicht so gut, dass die therapeutische Wirksamkeit dadurch zweifelsfrei belegt ist.Da somit noch nicht genügend zu erkennen ist, dass der Husten mit diesen Mitteln tatsächlich schneller abklingt als ohne sie, sind sie mit Einschränkung geeignet.</t>
+    <t>SolverPlant</t>
+  </si>
+  <si>
+    <t>Thymian Eucalyptus</t>
+  </si>
+  <si>
+    <t>Thymian Primel</t>
+  </si>
+  <si>
+    <t>Thymian Efeu</t>
+  </si>
+  <si>
+    <t>Efeu</t>
+  </si>
+  <si>
+    <t>In wenigen Studien konnte gezeigt werden, dass efeuhaltige Präparate die Beschwerden bei Husten lindern können. Allerdings sind die Studien wisssenschaftlich nicht so gut, dass die therapeutische Wirksamkeit dadurch zweifelsfrei belegt ist.Da somit noch nicht genügend zu erkennen ist, dass der Husten mit diesen Mitteln tatsächlich schneller abklingt als ohne sie, sind sie mit Einschränkung geeignet.</t>
   </si>
   <si>
     <t xml:space="preserve">https://cdn.pflanzmich.de/produkt/44319/01-hedera-helix-baltica-91151-cm-04_origin_img.jpg </t>
@@ -85,10 +90,10 @@
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/pflanzliches-hustenmittel-efeu-w1470/ </t>
   </si>
   <si>
-    <t xml:space="preserve">Pelargonium Siodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die bisherigen Studienergebnisse zur Anwendung der Tropfen bei akuter Bronchitis lassen noch keine klare Aussage zur therapeutischen Wirksamkeit zu, sie sind deshalb mit Einschränkung geeignet.
+    <t>Pelargonium Siodes</t>
+  </si>
+  <si>
+    <t>Die bisherigen Studienergebnisse zur Anwendung der Tropfen bei akuter Bronchitis lassen noch keine klare Aussage zur therapeutischen Wirksamkeit zu, sie sind deshalb mit Einschränkung geeignet.
 Die Studienlage zum Einsatz der Tabletten ist noch wesentlich dürftiger. Im Vergleich mit einem Scheinmedikament (Placebo) konnten die Tabletten die Krankheitsdauer bei akuter Bronchitis nicht wesentlich verkürzen. Ob der Saft therapeutisch wirksam ist, wurde bisher noch nicht in hochwertigen Studien untersucht. Tabletten und Saft sind bei akuter Bronchitis deshalb wenig geeignet.
 Umckaloabo wird in den Apotheken vor allem als Erkältungsmittel angeboten. Es ist jedoch nur für die Behandlung der akuten Bronchitis zugelassen, deren Hauptsymptom Husten ist. Dieser ist bei Erkältungen aber nur eines von mehreren Symptomen.</t>
   </si>
@@ -96,70 +101,70 @@
     <t xml:space="preserve">https://www.smgrowers.com/imagedb/Pelargoniumsidioides.jpg </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/pflanzliches-mittel-pelargonium-w1350/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrtol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorteil: auch für Nasennebenhöhlen |Myrtol ist eine standardisierte Mischung aus Eukalyptusöl, Süßorangenöl, Zitronenöl und Myrtenöl. Von welchen Pflanzen die einzelnen Bestandteile genau stammen, ist nicht angegeben. Für diese Präparate mit ihrer festgelegten Zusammensetzung liegen einige Studien vor, die bei akuter Bronchitis und auch bei Nebenhöhlenentzündung eine Besserung der Beschwerden zeigen. Aufgrund methodischer Unzulänglichkeiten der Untersuchungen können die Ergebnisse aber eine therapeutische Wirksamkeit noch nicht zweifelsfrei belegen. Mittel mit Myrtol sind deshalb mit Einschränkung geeignet.</t>
+    <t>https://www.test.de/medikamente/wirkstoff/pflanzliches-mittel-pelargonium-w1350/</t>
+  </si>
+  <si>
+    <t>Myrtol</t>
+  </si>
+  <si>
+    <t>Vorteil: auch für Nasennebenhöhlen |Myrtol ist eine standardisierte Mischung aus Eukalyptusöl, Süßorangenöl, Zitronenöl und Myrtenöl. Von welchen Pflanzen die einzelnen Bestandteile genau stammen, ist nicht angegeben. Für diese Präparate mit ihrer festgelegten Zusammensetzung liegen einige Studien vor, die bei akuter Bronchitis und auch bei Nebenhöhlenentzündung eine Besserung der Beschwerden zeigen. Aufgrund methodischer Unzulänglichkeiten der Untersuchungen können die Ergebnisse aber eine therapeutische Wirksamkeit noch nicht zweifelsfrei belegen. Mittel mit Myrtol sind deshalb mit Einschränkung geeignet.</t>
   </si>
   <si>
     <t xml:space="preserve">https://media.sciencephoto.com/image/b6400303/400wm </t>
   </si>
   <si>
-    <t xml:space="preserve">Cineol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da aus den bisher vorliegenden Studien noch nicht genügend zu erkennen ist, dass der Husten mit diesem Mittel tatsächlich schneller abklingt als ohne, ist das Mittel mit Einschränkung geeignet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/thumb/3/3d/Echter_Lorbeer_-_Bl%C3%A4tter%2C_Bl%C3%BCtenknospen_und_reife_Fr%C3%BCchte.jpg/500px-Echter_Lorbeer_-_Bl%C3%A4tter%2C_Bl%C3%BCtenknospen_und_reife_Fr%C3%BCchte.jpg</t>
+    <t>Cineol</t>
+  </si>
+  <si>
+    <t>Da aus den bisher vorliegenden Studien noch nicht genügend zu erkennen ist, dass der Husten mit diesem Mittel tatsächlich schneller abklingt als ohne, ist das Mittel mit Einschränkung geeignet.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3d/Echter_Lorbeer_-_Bl%C3%A4tter%2C_Bl%C3%BCtenknospen_und_reife_Fr%C3%BCchte.jpg/500px-Echter_Lorbeer_-_Bl%C3%A4tter%2C_Bl%C3%BCtenknospen_und_reife_Fr%C3%BCchte.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/pflanzliches-hustenmittel-cineol-w1358/ </t>
   </si>
   <si>
-    <t xml:space="preserve">nein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eibisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spitzwegerich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eucalyptus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyloxapol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SolverSynth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambroxol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die bisher vorliegenden Studien reichen noch nicht aus, um den therapeutischen Stellenwert abschließend zu bestimmen. Zwar gibt es eine Reihe von Studien zu diesem Wirkstoff, die Ergebnisse sind aber uneinheitlich. Dass der Husten damit tatsächlich schneller abklingt als ohne Ambroxol, ist nicht genügend belegt. Mehr als eine unterstützende Wirkung ist bei Husten von diesen Mitteln nach jetzigem Kenntnisstand nicht zu erwarten. Mittel mit Ambroxol sind deshalb nur mit Einschränkung geeignet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/c/c9/Ambroxol_structural_formulae.png</t>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Eibisch</t>
+  </si>
+  <si>
+    <t>(…)</t>
+  </si>
+  <si>
+    <t>Spitzwegerich</t>
+  </si>
+  <si>
+    <t>Eucalyptus</t>
+  </si>
+  <si>
+    <t>HOM</t>
+  </si>
+  <si>
+    <t>Tyloxapol</t>
+  </si>
+  <si>
+    <t>SolverSynth</t>
+  </si>
+  <si>
+    <t>Ambroxol</t>
+  </si>
+  <si>
+    <t>Die bisher vorliegenden Studien reichen noch nicht aus, um den therapeutischen Stellenwert abschließend zu bestimmen. Zwar gibt es eine Reihe von Studien zu diesem Wirkstoff, die Ergebnisse sind aber uneinheitlich. Dass der Husten damit tatsächlich schneller abklingt als ohne Ambroxol, ist nicht genügend belegt. Mehr als eine unterstützende Wirkung ist bei Husten von diesen Mitteln nach jetzigem Kenntnisstand nicht zu erwarten. Mittel mit Ambroxol sind deshalb nur mit Einschränkung geeignet.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c9/Ambroxol_structural_formulae.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/sekretloesendes-mittel-ambroxol-w1345/ </t>
   </si>
   <si>
-    <t xml:space="preserve">Bromhexin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromhexin wird im Körper zu Ambroxol abgebaut, das dann die Schleimsekretion fördert. Da es Ambroxol selbst als Medikament gibt, ist Bromhexin wenig geeignet, zumal Ambroxol besser vertragen wird.</t>
+    <t>Bromhexin</t>
+  </si>
+  <si>
+    <t>Bromhexin wird im Körper zu Ambroxol abgebaut, das dann die Schleimsekretion fördert. Da es Ambroxol selbst als Medikament gibt, ist Bromhexin wenig geeignet, zumal Ambroxol besser vertragen wird.</t>
   </si>
   <si>
     <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Bromhexine_Structural_Formulae_V.1.svg/1200px-Bromhexine_Structural_Formulae_V.1.svg.png </t>
@@ -168,10 +173,10 @@
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/sekretloesendes-mittel-bromhexin-w1468/ </t>
   </si>
   <si>
-    <t xml:space="preserve">ACC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisher reichen die vorliegenden Studien noch nicht aus, um den therapeutischen Stellenwert abschließend zu bestimmen. Zwar gibt es eine Reihe von Studien zu Acetylcystein, die Ergebnisse sind aber uneinheitlich. Dass der Husten damit tatsächlich schneller abklingt als ohne diese Medikamente, ist nicht genügend belegt. </t>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Bisher reichen die vorliegenden Studien noch nicht aus, um den therapeutischen Stellenwert abschließend zu bestimmen. Zwar gibt es eine Reihe von Studien zu Acetylcystein, die Ergebnisse sind aber uneinheitlich. Dass der Husten damit tatsächlich schneller abklingt als ohne diese Medikamente, ist nicht genügend belegt. </t>
   </si>
   <si>
     <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/3/3a/%28R%29-N-Acetylcysteine_Structural_Formulae.png </t>
@@ -180,10 +185,10 @@
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/sekretloesendes-mittel-acetylcystein-w1456/?focus=indi_k287 </t>
   </si>
   <si>
-    <t xml:space="preserve">Guaifenisin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Wirkung ist jedoch in Studien nicht ausreichend nachgewiesen und aktuelle Untersuchungen wecken Zweifel an diesem Wirkungsmechanismus. Außerdem wurde in Studien beobachtet, dass Guaifenesin den Hustenreiz unterdrücken kann. Die Anwendung eines sekretlösenden Mittels mit zusätzlich hustenblockierenden Eigenschaften erscheint wenig sinnvoll, weil dann die Gefahr besteht, dass gelöster Schleim nicht gut abgehustet wird und einen Nährboden für Bakterien bieten kann. Guaifenesin ist deshalb zur Behandlung von Husten wenig geeignet.</t>
+    <t>Guaifenisin</t>
+  </si>
+  <si>
+    <t>Die Wirkung ist jedoch in Studien nicht ausreichend nachgewiesen und aktuelle Untersuchungen wecken Zweifel an diesem Wirkungsmechanismus. Außerdem wurde in Studien beobachtet, dass Guaifenesin den Hustenreiz unterdrücken kann. Die Anwendung eines sekretlösenden Mittels mit zusätzlich hustenblockierenden Eigenschaften erscheint wenig sinnvoll, weil dann die Gefahr besteht, dass gelöster Schleim nicht gut abgehustet wird und einen Nährboden für Bakterien bieten kann. Guaifenesin ist deshalb zur Behandlung von Husten wenig geeignet.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.chemsrc.com/caspic/086/93-14-1.png </t>
@@ -192,10 +197,10 @@
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/sekretloesendes-mittel-guaifenesin-w1465/ </t>
   </si>
   <si>
-    <t xml:space="preserve">Dextrometorphan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die therapeutische Wirksamkeit von Dextromethorphan ist gut belegt, das Mittel ist zur kurzzeitigen Behandlung von Husten ohne Auswurf (trockenem Reizhusten) geeignet.
+    <t>Dextrometorphan</t>
+  </si>
+  <si>
+    <t>Die therapeutische Wirksamkeit von Dextromethorphan ist gut belegt, das Mittel ist zur kurzzeitigen Behandlung von Husten ohne Auswurf (trockenem Reizhusten) geeignet.
 Bei einigen Präparaten wird durch den Zusatz "mit Honig" der Eindruck erweckt, dass Pastillen und Sirup Honig enthalten und damit ein natürliches Mittel in nennenswerten Mengen (siehe Tabelle). Das ist jedoch nicht der Fall und es sollte auch nicht dazu verführen, die Mittel in großen Mengen oder über lange Zeit zu konsumieren.</t>
   </si>
   <si>
@@ -205,16 +210,16 @@
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/hustenstiller-dextromethorphan-w1371/ </t>
   </si>
   <si>
-    <t xml:space="preserve">1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pentoxyverin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die therapeutische Wirksamkeit von Pentoxyverin ist nicht gut belegt. Die bisher vorliegenden Studien reichen noch nicht aus, um den therapeutischen Stellenwert abschließend zu bestimmen. Pentoxyverin ist deshalb nur mit Einschränkung geeignet.</t>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>Calmer</t>
+  </si>
+  <si>
+    <t>Pentoxyverin</t>
+  </si>
+  <si>
+    <t>Die therapeutische Wirksamkeit von Pentoxyverin ist nicht gut belegt. Die bisher vorliegenden Studien reichen noch nicht aus, um den therapeutischen Stellenwert abschließend zu bestimmen. Pentoxyverin ist deshalb nur mit Einschränkung geeignet.</t>
   </si>
   <si>
     <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/thumb/e/e7/2-%282-%28diethylamino%29ethoxy%29ethyl_1-phenylcyclopentanecarboxylate_200.svg/1200px-2-%282-%28diethylamino%29ethoxy%29ethyl_1-phenylcyclopentanecarboxylate_200.svg.png </t>
@@ -223,54 +228,35 @@
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/hustenstiller-pentoxyverin-w1480/ </t>
   </si>
   <si>
-    <t xml:space="preserve">2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropropizin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die therapeutische Wirksamkeit von Dropropizin ist bisher nicht gut dokumentiert. Die vorliegenden Studien reichen noch nicht aus, um den therapeutischen Stellenwert dieses Mittels abschließend zu bestimmen. Es ist deshalb nur mit Einschränkung geeignet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://deacademic.com/pictures/dewiki/68/Dropropizine.png</t>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>Dropropizin</t>
+  </si>
+  <si>
+    <t>Die therapeutische Wirksamkeit von Dropropizin ist bisher nicht gut dokumentiert. Die vorliegenden Studien reichen noch nicht aus, um den therapeutischen Stellenwert dieses Mittels abschließend zu bestimmen. Es ist deshalb nur mit Einschränkung geeignet.</t>
+  </si>
+  <si>
+    <t>https://deacademic.com/pictures/dewiki/68/Dropropizine.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/hustenstiller-dropropizin-levodropropizin-w1482/ </t>
   </si>
   <si>
-    <t xml:space="preserve">Benproperin</t>
+    <t>Benproperin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -280,7 +266,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -309,14 +295,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -327,7 +313,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -343,78 +329,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="MetaData_Columns" xfId="21"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="MetaData_Columns" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -473,33 +420,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3652A0"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="67.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="16.38"/>
+    <col min="2" max="2" width="6.84375" customWidth="1"/>
+    <col min="3" max="3" width="18.3828125" customWidth="1"/>
+    <col min="4" max="4" width="67.69140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.84375" customWidth="1"/>
+    <col min="7" max="8" width="16.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,17 +780,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -544,21 +799,24 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -567,21 +825,24 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -590,21 +851,24 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -613,24 +877,24 @@
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -639,21 +903,21 @@
       <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:8" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -665,24 +929,24 @@
       <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -691,24 +955,24 @@
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -717,117 +981,117 @@
       <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="G10" s="0" t="n">
+      <c r="E10"/>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="0"/>
-      <c r="G13" s="0" t="n">
+      <c r="E13"/>
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="0"/>
-      <c r="G14" s="0" t="n">
+      <c r="E14"/>
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -836,24 +1100,24 @@
       <c r="F15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -862,24 +1126,24 @@
       <c r="F16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -888,24 +1152,24 @@
       <c r="F17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -914,21 +1178,21 @@
       <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:8" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -940,24 +1204,24 @@
       <c r="F19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -966,24 +1230,24 @@
       <c r="F20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -992,48 +1256,43 @@
       <c r="F21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="0"/>
-      <c r="G22" s="0" t="s">
+      <c r="E22"/>
+      <c r="G22" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
       <c r="C28" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/databases/API.xlsx
+++ b/databases/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D9562-0B4B-451A-BACE-3A534C40422B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582ADFC4-6EFD-4401-89F6-4F59C74FB7D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Thymian Primel</t>
-  </si>
-  <si>
-    <t>Thymian Efeu</t>
   </si>
   <si>
     <t>Efeu</t>
@@ -197,9 +191,6 @@
     <t xml:space="preserve">https://www.test.de/medikamente/wirkstoff/sekretloesendes-mittel-guaifenesin-w1465/ </t>
   </si>
   <si>
-    <t>Dextrometorphan</t>
-  </si>
-  <si>
     <t>Die therapeutische Wirksamkeit von Dextromethorphan ist gut belegt, das Mittel ist zur kurzzeitigen Behandlung von Husten ohne Auswurf (trockenem Reizhusten) geeignet.
 Bei einigen Präparaten wird durch den Zusatz "mit Honig" der Eindruck erweckt, dass Pastillen und Sirup Honig enthalten und damit ein natürliches Mittel in nennenswerten Mengen (siehe Tabelle). Das ist jedoch nicht der Fall und es sollte auch nicht dazu verführen, die Mittel in großen Mengen oder über lange Zeit zu konsumieren.</t>
   </si>
@@ -244,6 +235,15 @@
   </si>
   <si>
     <t>Benproperin</t>
+  </si>
+  <si>
+    <t>Describtion</t>
+  </si>
+  <si>
+    <t>Mein persönlicher Favorit: Thymian Efeu</t>
+  </si>
+  <si>
+    <t>Mein persönlicher Favorit: Dextrometorphan</t>
   </si>
 </sst>
 </file>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -765,19 +765,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -785,25 +785,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -811,25 +811,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -837,51 +837,51 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -889,25 +889,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="218.6" x14ac:dyDescent="0.4">
@@ -915,25 +915,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -941,25 +941,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -967,25 +967,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -993,20 +993,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
       <c r="E10"/>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1014,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1029,13 +1029,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1044,20 +1044,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
       </c>
       <c r="E13"/>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1065,20 +1065,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
       </c>
       <c r="E14"/>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1112,25 +1112,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1138,25 +1138,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="131.15" x14ac:dyDescent="0.4">
@@ -1190,25 +1190,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="G19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="H19" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1216,25 +1216,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -1242,25 +1242,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -1268,20 +1268,20 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
       </c>
       <c r="E22"/>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">

--- a/databases/API.xlsx
+++ b/databases/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582ADFC4-6EFD-4401-89F6-4F59C74FB7D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03B507-7BF0-4F2F-9D9D-B3F1877B359F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>include</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Mein persönlicher Favorit: Dextrometorphan</t>
+  </si>
+  <si>
+    <t>Include</t>
   </si>
 </sst>
 </file>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -754,30 +754,30 @@
     <col min="7" max="8" width="16.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -785,25 +785,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -811,25 +811,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -837,25 +837,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
@@ -863,25 +863,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -889,25 +889,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="218.6" x14ac:dyDescent="0.4">
@@ -915,25 +915,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -941,25 +941,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -967,25 +967,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -993,20 +993,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
       </c>
       <c r="E10"/>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1014,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1029,13 +1029,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1044,20 +1044,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13"/>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1065,20 +1065,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14"/>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1112,25 +1112,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1138,25 +1138,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="131.15" x14ac:dyDescent="0.4">
@@ -1190,25 +1190,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>57</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1216,25 +1216,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -1242,25 +1242,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -1268,20 +1268,20 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22"/>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
